--- a/rankings_generales.xlsx
+++ b/rankings_generales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,87 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rank</t>
+          <t>Rank</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Released Worldwide</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Theatrical Distributor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Production Method</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Creative Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Production Budget</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Opening Weekend Theaters</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Maximum Theaters</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Theatrical Engagements</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Opening Weekend Revenue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Domestic box officce</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Inf Adj Domestic Box Office</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>International Box Office</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Worldwide Box Office</t>
         </is>
       </c>
     </row>
@@ -453,7 +528,82 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Avatar</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20th Century Fox</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>$237,000,000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3,452</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3,461</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>51,391</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>$77,025,481</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$785,221,649</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>$1,089,388,693</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>$2,138,484,377</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$2,923,706,026</t>
         </is>
       </c>
     </row>
@@ -465,7 +615,82 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Avengers: Endgame</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$400,000,000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4,662</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4,662</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>37,780</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>$357,115,007</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$858,373,000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>$1,010,181,328</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>$1,930,539,285</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$2,788,912,285</t>
         </is>
       </c>
     </row>
@@ -477,7 +702,82 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Avatar: The Way of Water</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20th Century Studios</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>$460,000,000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4,202</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4,340</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>48,351</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>$134,100,226</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$684,075,767</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>$693,596,368</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>$1,633,438,619</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$2,317,514,386</t>
         </is>
       </c>
     </row>
@@ -489,7 +789,82 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Titanic</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Paramount Pictures</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Historical Fiction</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2,674</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3,265</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>93,184</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>$28,638,131</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$674,460,013</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>$1,480,871,432</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$1,548,588,773</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$2,223,048,786</t>
         </is>
       </c>
     </row>
@@ -501,7 +876,82 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Star Wars Ep. VII: The Force Awakens</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>$306,000,000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4,134</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4,134</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>37,852</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>$247,966,675</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$936,662,225</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>$1,191,447,782</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>$1,127,953,592</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$2,064,615,817</t>
         </is>
       </c>
     </row>
@@ -513,7 +963,82 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Avengers: Infinity War</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>$300,000,000</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4,474</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4,474</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>34,406</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>$257,698,183</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$678,815,482</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>$803,252,566</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>$1,369,544,272</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$2,048,359,754</t>
         </is>
       </c>
     </row>
@@ -525,7 +1050,82 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Spider-Man: No Way Home</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4,336</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4,336</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>63,588</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>$260,138,569</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$814,115,070</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>$854,207,728</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>$1,093,721,184</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$1,907,836,254</t>
         </is>
       </c>
     </row>
@@ -537,7 +1137,82 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Jurassic World</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>$215,000,000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>4,274</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4,291</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>36,528</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>$208,806,270</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$652,306,625</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>$834,139,853</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>$1,017,657,016</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$1,669,963,641</t>
         </is>
       </c>
     </row>
@@ -549,7 +1224,82 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>The Lion King</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Remake</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$260,000,000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4,725</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4,802</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>40,962</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>$191,770,759</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$543,638,043</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>$639,783,632</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>$1,102,468,736</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$1,646,106,779</t>
         </is>
       </c>
     </row>
@@ -561,7 +1311,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>The Avengers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>$225,000,000</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4,349</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4,349</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>37,645</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>$207,438,708</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$623,357,910</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>$844,195,760</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>$891,742,301</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$1,515,100,211</t>
         </is>
       </c>
     </row>
@@ -573,7 +1398,82 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Furious 7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>$190,000,000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4,004</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4,022</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>27,789</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>$147,187,040</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$353,007,020</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>$451,413,481</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>$1,158,979,344</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$1,511,986,364</t>
         </is>
       </c>
     </row>
@@ -585,7 +1485,82 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Top Gun: Maverick</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Paramount Pictures</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>$170,000,000</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4,735</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4,751</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>69,377</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>$126,707,459</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$718,732,821</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>$735,796,748</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>$749,254,398</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$1,467,987,219</t>
         </is>
       </c>
     </row>
@@ -597,7 +1572,82 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Frozen II</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Musical</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Based on Folk Tale/Legend/Fairytale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>$150,000,000</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4,440</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4,440</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>38,297</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>$130,263,358</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$477,373,578</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>$561,730,837</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>$974,279,738</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$1,451,653,316</t>
         </is>
       </c>
     </row>
@@ -609,7 +1659,82 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Barbie</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Based on Toy</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>$151,000,000</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4,243</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,337</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>41,093</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>$162,022,044</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$636,238,421</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>$636,238,421</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>$797,194,408</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$1,433,432,829</t>
         </is>
       </c>
     </row>
@@ -621,7 +1746,82 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Avengers: Age of Ultron</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>$365,000,000</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4,276</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4,276</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>30,109</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>$191,271,109</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$459,005,868</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>$586,961,233</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>$936,311,111</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$1,395,316,979</t>
         </is>
       </c>
     </row>
@@ -633,7 +1833,82 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>The Super Mario Bros. Movie</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Based on Game</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>$100,000,000</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4,343</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4,371</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>40,227</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>$146,361,865</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$574,934,330</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>$574,934,330</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>$786,744,473</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$1,361,678,803</t>
         </is>
       </c>
     </row>
@@ -645,7 +1920,82 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Black Panther</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>4,020</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4,084</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>40,236</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>$202,003,951</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$700,059,566</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>$828,391,008</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>$636,434,754</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$1,336,494,320</t>
         </is>
       </c>
     </row>
@@ -657,7 +2007,82 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Star Wars Ep. VIII: The Last Jedi</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>$262,000,000</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>4,232</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4,232</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>28,185</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>$220,009,584</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$620,181,382</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>$743,422,283</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>$711,453,759</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$1,331,635,141</t>
         </is>
       </c>
     </row>
@@ -669,7 +2094,82 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Harry Potter and the Deathly Hallows:…</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>$125,000,000</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4,375</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,375</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>26,153</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>$169,189,427</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$381,193,157</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>$518,159,921</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>$931,250,693</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$1,312,443,850</t>
         </is>
       </c>
     </row>
@@ -681,7 +2181,82 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Jurassic World: Fallen Kingdom</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>$170,000,000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4,475</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4,485</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>30,489</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>$148,024,610</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$417,719,760</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>$494,294,079</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>$890,603,542</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$1,308,323,302</t>
         </is>
       </c>
     </row>
@@ -693,7 +2268,82 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Frozen</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Musical</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Based on Folk Tale/Legend/Fairytale</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>$150,000,000</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3,742</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>50,666</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>$243,390</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$400,953,009</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>$530,936,873</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>$873,429,519</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>$1,274,382,528</t>
         </is>
       </c>
     </row>
@@ -705,7 +2355,82 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Beauty and the Beast</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Musical</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Remake</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>$160,000,000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>4,210</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4,210</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>35,923</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>$174,750,616</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$504,014,165</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>$605,716,019</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>$764,683,318</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>$1,268,697,483</t>
         </is>
       </c>
     </row>
@@ -717,7 +2442,82 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Incredibles 2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>4,410</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4,413</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>40,116</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>$182,687,905</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$608,581,744</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>$720,143,929</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>$634,223,615</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$1,242,805,359</t>
         </is>
       </c>
     </row>
@@ -729,7 +2529,82 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>The Fate of the Furious</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>$250,000,000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>4,310</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4,329</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>24,612</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>$98,786,705</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$225,764,765</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>$271,320,419</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>$1,009,769,249</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>$1,235,534,014</t>
         </is>
       </c>
     </row>
@@ -741,7 +2616,82 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Iron Man 3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>4,253</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4,253</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>26,382</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>$174,144,585</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$408,992,272</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>$542,304,631</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>$806,400,000</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>$1,215,392,272</t>
         </is>
       </c>
     </row>
@@ -753,7 +2703,82 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Minions</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>$74,000,000</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>4,301</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4,311</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>33,712</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>$115,718,405</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$336,045,770</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>$429,724,013</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>$821,225,989</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>$1,157,271,759</t>
         </is>
       </c>
     </row>
@@ -765,7 +2790,82 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Captain America: Civil War</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>$250,000,000</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>4,226</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>4,226</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>25,150</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>$179,139,142</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$408,084,349</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>$508,572,167</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>$743,815,237</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>$1,151,899,586</t>
         </is>
       </c>
     </row>
@@ -777,7 +2877,82 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Spider-Man: Far From Home</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>$160,000,000</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>4,634</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4,634</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>32,717</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>$92,579,212</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$390,532,085</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>$459,599,985</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>$741,575,437</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>$1,132,107,522</t>
         </is>
       </c>
     </row>
@@ -789,7 +2964,82 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Aquaman</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>$160,000,000</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>4,125</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>4,184</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>31,526</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>$67,873,522</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$335,061,807</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>$395,605,216</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>$796,787,895</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$1,131,849,702</t>
         </is>
       </c>
     </row>
@@ -801,7 +3051,82 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Captain Marvel</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>$175,000,000</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>4,310</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>4,310</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>34,019</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>$153,433,423</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$426,829,839</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>$502,317,212</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>$702,746,255</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>$1,129,576,094</t>
         </is>
       </c>
     </row>
@@ -813,7 +3138,82 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Transformers: Dark of the Moon</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Paramount Pictures</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Based on TV</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>$195,000,000</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>4,088</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>4,107</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>23,342</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>$97,852,865</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$352,390,543</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>$479,037,835</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>$771,403,536</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>$1,123,794,079</t>
         </is>
       </c>
     </row>
@@ -825,7 +3225,82 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>The Lord of the Rings: The Return of …</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>New Line</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>$94,000,000</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>3,703</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>3,703</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>35,419</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>$72,629,713</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$379,021,990</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>$671,823,592</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>$742,364,991</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>$1,121,386,981</t>
         </is>
       </c>
     </row>
@@ -837,7 +3312,82 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>3,505</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3,526</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>28,830</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>$88,364,714</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$304,360,277</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>$411,972,425</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>$806,166,704</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$1,110,526,981</t>
         </is>
       </c>
     </row>
@@ -849,7 +3399,82 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Transformers: Age of Extinction</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Paramount Pictures</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Based on TV</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>$210,000,000</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>4,233</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4,233</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>22,124</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>$100,038,390</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$245,439,076</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>$323,847,392</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>$858,614,996</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>$1,104,054,072</t>
         </is>
       </c>
     </row>
@@ -861,7 +3486,82 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>The Dark Knight Rises</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>$230,000,000</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>4,404</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4,404</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>32,481</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>$160,887,295</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$448,139,099</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>$606,901,937</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>$634,089,008</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$1,082,228,107</t>
         </is>
       </c>
     </row>
@@ -873,7 +3573,82 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Toy Story 4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>4,575</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>4,575</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>38,194</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>$120,908,065</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$434,038,008</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>$510,800,188</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>$638,779,956</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$1,072,817,964</t>
         </is>
       </c>
     </row>
@@ -885,7 +3660,82 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Star Wars: The Rise of Skywalker</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>$275,000,000</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4,406</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>4,406</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>29,704</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>$177,383,864</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$515,202,542</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>$605,999,942</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>$557,565,455</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$1,072,767,997</t>
         </is>
       </c>
     </row>
@@ -897,7 +3747,82 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Toy Story 3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>4,028</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4,028</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>33,699</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>$110,307,189</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$415,004,880</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>$567,015,538</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>$653,874,642</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$1,068,879,522</t>
         </is>
       </c>
     </row>
@@ -909,7 +3834,82 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Pirates of the Caribbean: Dead Man’…</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Based on Theme Park Ride</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Historical Fiction</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>$225,000,000</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>4,133</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>4,133</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>34,395</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>$135,634,554</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$423,315,812</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>$696,693,807</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>$642,863,913</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$1,066,179,725</t>
         </is>
       </c>
     </row>
@@ -921,7 +3921,82 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Joker</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Thriller/Suspense</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>$55,000,000</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>4,374</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4,374</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>32,875</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>$96,202,337</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$335,451,311</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>$394,773,539</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>$728,633,935</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$1,064,085,246</t>
         </is>
       </c>
     </row>
@@ -933,7 +4008,82 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Jurassic Park</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>$63,000,000</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2,404</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2,778</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>51,636</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>$50,159,460</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$415,404,543</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>$1,003,158,330</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>$643,049,687</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$1,058,454,230</t>
         </is>
       </c>
     </row>
@@ -945,7 +4095,82 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Rogue One: A Star Wars Story</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>4,157</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>4,157</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>29,371</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>$155,081,681</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$533,539,991</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>$659,851,605</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>$521,543,605</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>$1,055,083,596</t>
         </is>
       </c>
     </row>
@@ -957,7 +4182,82 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Aladdin</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Based on Movie</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>$182,000,000</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>4,476</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>4,476</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>35,706</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>$91,500,929</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$355,559,216</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>$418,441,956</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>$691,028,297</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>$1,046,587,513</t>
         </is>
       </c>
     </row>
@@ -969,7 +4269,82 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Pirates of the Caribbean: On Stranger…</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Based on Theme Park Ride</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Historical Fiction</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>$379,000,000</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4,155</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>4,164</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>25,026</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>$90,151,958</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$241,071,802</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>$327,711,731</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>$804,642,000</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>$1,045,713,802</t>
         </is>
       </c>
     </row>
@@ -981,7 +4356,82 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Despicable Me 3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>$75,000,000</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4,529</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>4,535</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>35,489</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>$72,434,025</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$264,624,300</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>$318,021,168</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>$768,185,357</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>$1,032,809,657</t>
         </is>
       </c>
     </row>
@@ -993,7 +4443,82 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Star Wars Ep. I: The Phantom Menace</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20th Century Fox</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>$115,000,000</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2,970</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>3,126</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>47,092</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>$64,810,970</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$474,544,677</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>$973,562,724</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>$552,500,000</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>$1,027,044,677</t>
         </is>
       </c>
     </row>
@@ -1005,7 +4530,82 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Alice in Wonderland</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>3,728</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>3,739</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>27,013</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>$116,101,023</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$334,191,110</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>$456,600,774</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>$691,300,000</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>$1,025,491,110</t>
         </is>
       </c>
     </row>
@@ -1017,7 +4617,82 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Finding Dory</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4,305</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>4,305</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>32,649</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>$135,060,273</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$486,295,561</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>$606,042,329</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>$538,710,564</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>$1,025,006,125</t>
         </is>
       </c>
     </row>
@@ -1029,7 +4704,82 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>The Hobbit: An Unexpected Journey</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4,045</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>4,100</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>27,719</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>$84,617,303</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$303,003,568</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>$409,239,868</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>$711,934,977</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>$1,014,938,545</t>
         </is>
       </c>
     </row>
@@ -1041,7 +4791,82 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Jurassic World: Dominion</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>$165,000,000</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>4,676</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4,697</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>33,015</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>$145,075,625</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$376,851,080</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>$385,798,165</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>$627,153,512</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>$1,004,004,592</t>
         </is>
       </c>
     </row>
@@ -1053,7 +4878,82 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Zootopia</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>$150,000,000</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>3,827</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3,959</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>38,728</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>$75,063,401</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$341,268,248</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>$425,303,081</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>$661,194,330</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>$1,002,462,578</t>
         </is>
       </c>
     </row>
@@ -1065,7 +4965,82 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>The Dark Knight</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>$185,000,000</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4,366</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4,366</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>39,170</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>$158,411,483</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>$534,235,491</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>$801,569,700</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>$465,004,537</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>$999,240,028</t>
         </is>
       </c>
     </row>
@@ -1077,7 +5052,82 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>The Lion King</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hand Animation</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>$79,300,000</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2,624</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>60,238</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>$1,586,753</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>$421,785,283</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>$979,252,839</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>$564,408,500</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>$986,193,783</t>
         </is>
       </c>
     </row>
@@ -1089,7 +5139,82 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Despicable Me 2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>$76,000,000</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>3,997</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>4,003</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>33,528</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>$84,227,980</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>$368,065,385</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>$488,036,774</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>$607,151,450</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>$975,216,835</t>
         </is>
       </c>
     </row>
@@ -1101,7 +5226,82 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Oppenheimer</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Based on Factual Book/Article</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Dramatization</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>$100,000,000</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>3,610</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>3,761</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>37,937</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>$82,455,420</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$329,862,540</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>$329,862,540</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>$640,644,276</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>$970,506,816</t>
         </is>
       </c>
     </row>
@@ -1113,7 +5313,82 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>Harry Potter and the Sorcerer’s Stone</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>$125,000,000</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>3,672</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3,672</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>36,120</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>$90,294,621</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>$317,871,467</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>$604,358,191</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>$645,771,108</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>$963,642,575</t>
         </is>
       </c>
     </row>
@@ -1125,7 +5400,82 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>Jumanji: Welcome to the Jungle</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>$90,000,000</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>3,765</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3,849</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>43,252</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>$36,169,328</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>$404,508,916</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>$481,782,735</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>$557,123,891</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>$961,632,807</t>
         </is>
       </c>
     </row>
@@ -1137,7 +5487,82 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Pirates of the Caribbean: At World’…</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Based on Theme Park Ride</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Historical Fiction</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>$300,000,000</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4,362</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>4,362</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>26,611</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>$114,732,820</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>$309,420,425</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>$484,818,620</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>$651,576,067</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>$960,996,492</t>
         </is>
       </c>
     </row>
@@ -1149,7 +5574,82 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>The Hobbit: The Desolation of Smaug</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>$250,000,000</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>3,903</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>3,928</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>25,150</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>$73,645,197</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$258,241,522</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>$342,225,923</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>$701,116,914</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>$959,358,436</t>
         </is>
       </c>
     </row>
@@ -1161,7 +5661,82 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>The Jungle Book</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>$175,000,000</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4,028</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>4,144</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>33,513</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>$103,261,464</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>$364,001,123</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>$453,633,762</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>$589,534,698</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>$953,535,821</t>
         </is>
       </c>
     </row>
@@ -1173,7 +5748,82 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>Doctor Strange in the Multiverse of M…</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4,534</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>4,534</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>29,807</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>$187,420,998</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>$411,331,607</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>$421,097,307</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>$540,893,379</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>$952,224,986</t>
         </is>
       </c>
     </row>
@@ -1185,7 +5835,82 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>Harry Potter and the Deathly Hallows:…</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>$125,000,000</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4,125</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>4,125</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>27,887</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>$125,017,372</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>$296,837,581</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>$405,193,638</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>$647,418,967</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>$944,256,548</t>
         </is>
       </c>
     </row>
@@ -1197,7 +5922,82 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>The Hobbit: The Battle of the Five Ar…</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>$250,000,000</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3,875</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>3,875</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>21,623</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>$54,724,334</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>$255,119,788</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>$335,216,001</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>$685,203,251</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>$940,323,039</t>
         </is>
       </c>
     </row>
@@ -1209,7 +6009,82 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>Minions: The Rise of Gru</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>$80,000,000</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4,391</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>4,427</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>45,866</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>$107,010,140</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>$370,270,765</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>$379,047,955</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>$569,030,832</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>$939,301,597</t>
         </is>
       </c>
     </row>
@@ -1221,7 +6096,82 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>Harry Potter and the Order of the Pho…</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>$150,000,000</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4,285</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>4,285</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>26,297</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>$77,108,414</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>$292,137,260</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>$457,687,495</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>$644,897,513</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>$937,034,773</t>
         </is>
       </c>
     </row>
@@ -1233,7 +6183,82 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>Finding Nemo</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>$94,000,000</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>3,374</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>3,425</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>50,008</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>$70,251,710</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>$380,529,370</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>$662,590,921</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>$555,565,482</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>$936,094,852</t>
         </is>
       </c>
     </row>
@@ -1245,7 +6270,82 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>Shrek 2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Dreamworks SKG</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>$70,000,000</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>4,163</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>4,223</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>33,603</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>$108,037,878</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>$441,426,807</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>$766,129,533</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>$494,027,731</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>$935,454,538</t>
         </is>
       </c>
     </row>
@@ -1257,7 +6357,82 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>Harry Potter and the Half-Blood Prince</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>$250,000,000</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>4,325</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>4,455</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>27,206</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>$77,835,727</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>$302,089,278</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>$434,169,944</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>$623,979,813</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>$926,069,091</t>
         </is>
       </c>
     </row>
@@ -1269,7 +6444,82 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>The Lord of the Rings: The Two Towers</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>New Line</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>$94,000,000</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>3,622</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>3,622</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>32,379</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>$62,007,528</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>$342,548,984</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>$629,813,005</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>$576,599,780</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>$919,148,764</t>
         </is>
       </c>
     </row>
@@ -1281,7 +6531,82 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>Chang jin hu</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CMC Pictures</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Based on Real Life Events</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Dramatization</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>$105,768</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>$333,214</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>$353,196</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>$909,263,022</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>$909,596,236</t>
         </is>
       </c>
     </row>
@@ -1293,7 +6618,82 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>Spider-Man 3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>$258,000,000</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4,252</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>4,324</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>27,819</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>$151,116,516</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>$336,530,303</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>$527,296,025</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>$558,329,927</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>$894,860,230</t>
         </is>
       </c>
     </row>
@@ -1305,7 +6705,82 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>The Lord of the Rings: The Fellowship…</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>New Line</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>$93,000,000</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>3,359</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>3,381</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>39,234</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>$47,211,490</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>$315,544,750</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>$595,206,748</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>$575,665,289</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>$891,210,039</t>
         </is>
       </c>
     </row>
@@ -1317,7 +6792,82 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>Ice Age: Dawn of the Dinosaurs</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20th Century Fox</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>$90,000,000</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>4,099</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>4,102</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>24,140</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>$41,690,382</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$196,573,705</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>$282,541,935</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>$690,113,112</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>$886,686,817</t>
         </is>
       </c>
     </row>
@@ -1329,7 +6879,82 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>The Secret Life of Pets</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>$75,000,000</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>4,370</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>4,381</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>35,694</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>$104,352,905</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>$369,094,830</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>$459,922,782</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>$516,918,170</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>$886,013,000</t>
         </is>
       </c>
     </row>
@@ -1341,7 +6966,82 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>Harry Potter and the Goblet of Fire</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>$150,000,000</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>3,858</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>3,858</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>29,032</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>$102,685,961</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>$290,201,752</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>$487,417,042</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>$595,021,234</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>$885,222,986</t>
         </is>
       </c>
     </row>
@@ -1353,7 +7053,82 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>Ice Age: Continental Drift</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>20th Century Fox</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>$95,000,000</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>3,881</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>3,886</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>27,365</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>$46,629,259</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>$161,321,843</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>$218,470,207</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>$718,443,294</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>$879,765,137</t>
         </is>
       </c>
     </row>
@@ -1365,7 +7140,82 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>Bohemian Rhapsody</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20th Century Fox</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Based on Real Life Events</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Dramatization</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>$55,000,000</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>35,008</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>$51,061,119</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>$216,303,339</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>$255,783,884</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>$662,785,558</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>$879,088,897</t>
         </is>
       </c>
     </row>
@@ -1377,7 +7227,82 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>Spectre</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>$245,000,000</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>3,929</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>3,929</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>23,645</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>$70,403,148</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>$200,074,175</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>$255,751,468</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>$679,003,169</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>$879,077,344</t>
         </is>
       </c>
     </row>
@@ -1389,7 +7314,82 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>Spider-Man: Homecoming</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>$175,000,000</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>4,348</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>4,348</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>34,848</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>$117,027,503</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>$334,201,140</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>$401,637,489</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>$544,070,151</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>$878,271,291</t>
         </is>
       </c>
     </row>
@@ -1401,7 +7401,82 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>Harry Potter and the Chamber of Secrets</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>$100,000,000</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>3,682</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>3,682</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>31,179</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>$88,357,488</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>$262,233,381</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>$485,718,998</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>$612,720,847</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>$874,954,228</t>
         </is>
       </c>
     </row>
@@ -1413,7 +7488,82 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>Batman v Superman: Dawn of Justice</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>$263,000,000</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>4,242</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4,256</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>25,005</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>$166,007,347</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>$330,360,194</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>$411,709,005</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>$542,034,897</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>$872,395,091</t>
         </is>
       </c>
     </row>
@@ -1425,7 +7575,82 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>Guardians of the Galaxy Vol 2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>$200,000,000</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>4,347</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>4,347</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>30,496</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>$146,510,104</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>$389,813,101</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>$468,471,031</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>$479,274,862</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>$869,087,963</t>
         </is>
       </c>
     </row>
@@ -1437,7 +7662,82 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>The Hunger Games: Catching Fire</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Lionsgate</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>$130,000,000</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>4,163</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4,163</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>30,485</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>$158,074,286</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>$424,668,047</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>$562,976,175</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>$440,139,967</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>$864,808,014</t>
         </is>
       </c>
     </row>
@@ -1449,7 +7749,82 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>Venom</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>$116,000,000</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>4,250</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>4,250</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>24,722</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>$80,255,756</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>$213,511,408</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>$252,650,720</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>$642,569,645</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>$856,081,053</t>
         </is>
       </c>
     </row>
@@ -1461,7 +7836,82 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>Black Panther: Wakanda Forever</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>$250,000,000</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>4,396</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>4,396</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>36,295</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>$181,339,761</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>$453,829,060</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>$464,192,287</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>$400,156,486</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>$853,985,546</t>
         </is>
       </c>
     </row>
@@ -1473,7 +7923,82 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>Inside Out</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>$175,000,000</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>3,946</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>4,158</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>37,079</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>$90,440,272</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>$356,461,711</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>$455,831,222</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>$494,104,632</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>$850,566,343</t>
         </is>
       </c>
     </row>
@@ -1485,7 +8010,82 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>Thor: Ragnarok</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>$180,000,000</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>4,080</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,080</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>26,570</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>$122,744,989</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>$315,058,289</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>$378,561,120</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>$535,424,489</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>$850,482,778</t>
         </is>
       </c>
     </row>
@@ -1497,7 +8097,82 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>Star Wars Ep. III: Revenge of the Sith</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>20th Century Fox</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>$115,000,000</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>3,661</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>3,663</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>26,895</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>$108,435,841</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>$380,270,577</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>$639,518,994</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>$468,728,300</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>$848,998,877</t>
         </is>
       </c>
     </row>
@@ -1509,7 +8184,82 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>Guardians of the Galaxy Vol 3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>$250,000,000</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>4,450</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>4,450</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>30,828</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>$118,414,021</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>$358,995,815</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>$358,995,819</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>$486,472,929</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>$845,468,744</t>
         </is>
       </c>
     </row>
@@ -1521,7 +8271,78 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Ni Hao, Li Huan Ying</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>$841,674,419</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>$841,674,419</t>
         </is>
       </c>
     </row>
@@ -1533,7 +8354,82 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Transformers: Revenge of the Fallen</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Paramount Pictures</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Based on TV</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>$210,000,000</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>4,234</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>4,293</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>28,686</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>$108,966,307</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>$402,111,870</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>$577,968,794</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>$434,407,829</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>$836,519,699</t>
         </is>
       </c>
     </row>
@@ -1545,7 +8441,82 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Zhan Lang 2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>The H Collective</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Contemporary Fiction</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>$219,022</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>$2,721,100</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>$3,270,167</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>$832,753,071</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>$835,474,171</t>
         </is>
       </c>
     </row>
@@ -1557,7 +8528,82 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>The Twilight Saga: Breaking Dawn, Part 2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Lionsgate</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>$136,200,000</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>4,070</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>4,070</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>24,105</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>$141,067,634</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>$292,324,737</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>$395,796,626</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>$537,400,000</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>$829,724,737</t>
         </is>
       </c>
     </row>
@@ -1569,7 +8615,82 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>Inception</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Thriller/Suspense</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>$160,000,000</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3,792</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>3,792</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>31,053</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>$62,785,337</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>$292,576,195</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>$399,742,839</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>$533,217,375</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>$825,793,570</t>
         </is>
       </c>
     </row>
@@ -1581,7 +8702,82 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>Spider-Man</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sony Pictures</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>$139,000,000</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>3,615</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>3,876</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>31,297</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>$114,844,116</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>$403,706,375</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>$749,045,562</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>$418,000,000</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>$821,706,375</t>
         </is>
       </c>
     </row>
@@ -1593,7 +8789,82 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>Wonder Woman</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Based on Comic/Graphic Novel</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>$150,000,000</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>4,165</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>4,165</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>38,939</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>$103,251,471</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>$412,563,408</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>$495,811,989</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>$405,128,358</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>$817,691,766</t>
         </is>
       </c>
     </row>
@@ -1605,7 +8876,82 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Independence Day</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>20th Century Fox</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>$75,000,000</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2,882</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2,977</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>39,368</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>$50,228,264</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>$306,169,255</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>$746,720,488</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>$511,231,623</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>$817,400,878</t>
         </is>
       </c>
     </row>
@@ -1617,7 +8963,82 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>Fantastic Beasts and Where to Find Them</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Warner Bros.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Animation/Live Action</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>$180,000,000</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>4,144</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>4,144</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>26,479</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>$74,403,387</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>$234,037,575</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>$291,162,496</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>$577,686,810</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>$811,724,385</t>
         </is>
       </c>
     </row>
@@ -1629,7 +9050,82 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>Shrek the Third</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Paramount Pictures</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Based on Fiction Book/Short Story</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Digital Animation</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Kids Fiction</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>$160,000,000</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>4,122</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>4,172</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>28,052</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>$121,629,270</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>$322,719,944</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>$505,657,115</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>$484,610,992</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>$807,330,936</t>
         </is>
       </c>
     </row>
@@ -1641,7 +9137,82 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>E.T. the Extra-Terrestrial</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Universal</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Original Screenplay</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Live Action</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Science Fiction</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>$10,500,000</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>1,101</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>3,010</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>63,341</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>$11,911,430</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>$439,454,989</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>$1,453,084,096</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>$357,852,418</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>$797,307,407</t>
         </is>
       </c>
     </row>
